--- a/inputs/x.xlsx
+++ b/inputs/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9DE775F-DF25-C940-A94B-FCDA88D0FC65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{365D917E-C21B-8A4E-A31C-60C23F048D13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="3500" windowWidth="28040" windowHeight="17440" xr2:uid="{2762D2A2-A025-B844-B174-5353F86DCA38}"/>
+    <workbookView xWindow="10360" yWindow="3500" windowWidth="28040" windowHeight="17440" xr2:uid="{2762D2A2-A025-B844-B174-5353F86DCA38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D64CB1-FF5B-8448-8C0A-6A7A78554FBB}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -392,302 +394,302 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.45814281790302</v>
+        <v>1.1920823830940299</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2.0318977192749301</v>
+        <v>1.44483043833123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0515426996967698</v>
+        <v>1.60437696642062</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.2468612868207001</v>
+        <v>1.61721518221868</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.5401690876868899</v>
+        <v>1.9384270008325299</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.6060126538813901</v>
+        <v>2.27500687401893</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4.6086358399486196</v>
+        <v>2.5263205924989798</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4.6462860220913704</v>
+        <v>2.6763465352767399</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4.8628433315605699</v>
+        <v>3.28376077921294</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5.0468856012020602</v>
+        <v>3.6560473312344</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5.6290487415712702</v>
+        <v>3.9185144530215101</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5.66633054738955</v>
+        <v>4.0153152953595601</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5.6889298414032199</v>
+        <v>4.8793481283687097</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6.2404611471270499</v>
+        <v>5.2926747649666703</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6.5121995159222097</v>
+        <v>5.9354034932481499</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6.8199042854002503</v>
+        <v>6.9073644628952504</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7.0988894869685604</v>
+        <v>6.9447638559519502</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7.2591993139234301</v>
+        <v>7.0303857232502702</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7.2611372778931704</v>
+        <v>7.1265532702269896</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>8.4009590058079606</v>
+        <v>7.3122769616025201</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>8.4339910122819504</v>
+        <v>7.6250191900396098</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>9.27211187700666</v>
+        <v>7.8039675252019096</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>9.7698908882731601</v>
+        <v>7.8752505944591897</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9.8141780195393</v>
+        <v>7.9038054919662004</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10.1448486492604</v>
+        <v>8.3142087476862692</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10.272676561713199</v>
+        <v>8.4865013288392497</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10.446354495510899</v>
+        <v>8.5518727686377698</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10.4588497247098</v>
+        <v>8.9628417632004904</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>10.648465387777399</v>
+        <v>8.9996003726823908</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>11.147884390064499</v>
+        <v>9.1972764686211299</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>11.1819739955254</v>
+        <v>9.6380718577846807</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>11.2987572496549</v>
+        <v>10.034444925142701</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>11.4281629121022</v>
+        <v>10.485012707054</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>12.1335791985498</v>
+        <v>10.7051760366842</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>12.949048753149</v>
+        <v>11.7893730352987</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>13.4026114055353</v>
+        <v>12.1857578694085</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>13.7095128898012</v>
+        <v>12.624548570155399</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>13.860515818909301</v>
+        <v>13.4241568354416</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13.978517170007001</v>
+        <v>13.9860874403455</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>14.097497097270701</v>
+        <v>14.4154195872818</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14.611321219789099</v>
+        <v>14.5545893043604</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>14.7035641616379</v>
+        <v>14.802780029186501</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>15.6864762447138</v>
+        <v>15.605375290458401</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>15.7053011110018</v>
+        <v>16.288983179863202</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16.130685381999299</v>
+        <v>16.393157076385201</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>16.276199489625402</v>
+        <v>16.4606452540128</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16.660603781997601</v>
+        <v>16.468570729338499</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16.784193482642099</v>
+        <v>16.939434744378602</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16.950716759481001</v>
+        <v>17.137520182095901</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17.214939986724499</v>
+        <v>17.267756447434401</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17.734397812081301</v>
+        <v>17.4068112998396</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>17.848257572215999</v>
+        <v>17.432538869536199</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>17.950439262848299</v>
+        <v>18.1049314386863</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>18.1487207256978</v>
+        <v>18.348661974797</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>18.566656110589101</v>
+        <v>18.680562437735301</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>18.631204089489099</v>
+        <v>18.876756438582799</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>18.700159261594401</v>
+        <v>19.198544637750398</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>19.246922413664301</v>
+        <v>19.488146172722299</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>19.5637776093958</v>
+        <v>19.504405800634999</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>19.917400392698902</v>
+        <v>19.865343827647902</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/x.xlsx
+++ b/inputs/x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{365D917E-C21B-8A4E-A31C-60C23F048D13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B243493-350F-854C-BEC4-292CF4360884}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="3500" windowWidth="28040" windowHeight="17440" xr2:uid="{2762D2A2-A025-B844-B174-5353F86DCA38}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D64CB1-FF5B-8448-8C0A-6A7A78554FBB}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,302 +394,1252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.1920823830940299</v>
+        <v>1.1136365840583899</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.44483043833123</v>
+        <v>1.23597078381277</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.60437696642062</v>
+        <v>1.6772558172119301</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.61721518221868</v>
+        <v>1.8531572886655301</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.9384270008325299</v>
+        <v>2.1995360171579801</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2.27500687401893</v>
+        <v>2.3267147343591899</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.5263205924989798</v>
+        <v>2.3583792714688898</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2.6763465352767399</v>
+        <v>2.6765308002981598</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3.28376077921294</v>
+        <v>3.1650074047556398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3.6560473312344</v>
+        <v>3.2135289209252198</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3.9185144530215101</v>
+        <v>3.81221000803906</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4.0153152953595601</v>
+        <v>3.8231186924137401</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4.8793481283687097</v>
+        <v>3.8889878814713401</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5.2926747649666703</v>
+        <v>3.93792406143942</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5.9354034932481499</v>
+        <v>3.9893043612136698</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6.9073644628952504</v>
+        <v>4.12509726856982</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>6.9447638559519502</v>
+        <v>4.6755751449733998</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7.0303857232502702</v>
+        <v>4.7029628274195501</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7.1265532702269896</v>
+        <v>4.9148017219687103</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7.3122769616025201</v>
+        <v>5.5473528943605901</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7.6250191900396098</v>
+        <v>5.5566454828382597</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7.8039675252019096</v>
+        <v>5.5732083489171096</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7.8752505944591897</v>
+        <v>5.5741810246917103</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7.9038054919662004</v>
+        <v>5.5931107413533496</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8.3142087476862692</v>
+        <v>6.0650066924344497</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>8.4865013288392497</v>
+        <v>6.16537605956972</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>8.5518727686377698</v>
+        <v>6.7804672827251</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>8.9628417632004904</v>
+        <v>6.9267082379092502</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8.9996003726823908</v>
+        <v>6.9743002968821202</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>9.1972764686211299</v>
+        <v>7.1630585248707197</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>9.6380718577846807</v>
+        <v>7.1887586458772104</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10.034444925142701</v>
+        <v>7.9476026858911402</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>10.485012707054</v>
+        <v>8.0118382391410492</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10.7051760366842</v>
+        <v>8.0501185428655901</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>11.7893730352987</v>
+        <v>8.0690437030619897</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12.1857578694085</v>
+        <v>8.2133453669694898</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>12.624548570155399</v>
+        <v>8.5288662404602995</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>13.4241568354416</v>
+        <v>8.5488304289006098</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13.9860874403455</v>
+        <v>8.8853824332923104</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>14.4154195872818</v>
+        <v>8.9148294379339408</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14.5545893043604</v>
+        <v>9.0087738607307397</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>14.802780029186501</v>
+        <v>9.39249923220118</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>15.605375290458401</v>
+        <v>9.5175357385888297</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>16.288983179863202</v>
+        <v>9.5903566069006896</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16.393157076385201</v>
+        <v>9.8719840586882999</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>16.4606452540128</v>
+        <v>9.8733354143048508</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16.468570729338499</v>
+        <v>10.426040236378199</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16.939434744378602</v>
+        <v>10.9971191833554</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>17.137520182095901</v>
+        <v>11.103319335211699</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17.267756447434401</v>
+        <v>11.1225962760937</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17.4068112998396</v>
+        <v>11.273304833564101</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>17.432538869536199</v>
+        <v>11.648255028413001</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>18.1049314386863</v>
+        <v>11.8856962535065</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>18.348661974797</v>
+        <v>11.9982745190252</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>18.680562437735301</v>
+        <v>12.122172989787</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>18.876756438582799</v>
+        <v>12.3825081011666</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>19.198544637750398</v>
+        <v>12.4229372557321</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>19.488146172722299</v>
+        <v>12.712972501223801</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>19.504405800634999</v>
+        <v>12.7446003091927</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>19.865343827647902</v>
+        <v>12.972814848500599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>13.0700585645267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>13.152378879773099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>13.190498057249901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13.1998207950582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13.341829903184401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>13.4190818607347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>13.439458861878499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>13.5297210125606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>13.7892018378417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>13.9180188486199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>14.483175725742001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>14.7268884013858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>14.7453061117491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>14.752449355809601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>14.8253450436991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>15.519654373636699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>15.6023915739654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>15.942880990310201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>16.072518246727501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16.157252765192499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>16.208720169481001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16.223331074671101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>16.447920969092099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>16.511616847437999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>16.9184725476902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>17.287771154068899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>17.294986249818599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>17.704462249848699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>17.793071679652002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>17.9546000748125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>18.010643546544301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>18.226821850168399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>18.4199573862713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>18.6559681563159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>18.7951022009286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>18.946189855920998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>19.068645058104501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>19.4510026605127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>19.465163104431301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>19.897038848840101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20.152014721615298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20.445916252197801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20.682484304561999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20.902508080786099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>21.3973369280212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>21.4300893211018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>21.727171227302101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>22.006542069363402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>22.117424906198199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>22.207721362175999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>22.331051670066</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>22.352210465471298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>22.4999582381717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>22.889716403231901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>22.927947398396899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>22.960715167145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>23.086997300695302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>23.126741276729799</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>23.4280906226785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>23.796959906083401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>23.814723803552798</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>24.5662333388434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>24.892960002289001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>25.081569348250699</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>25.533179107943901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>25.569163788671101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>25.7870532156103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>25.960280960873298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>26.019002339227701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>26.181062986877201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>26.5021307285826</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>26.5676566828513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>26.803079498728898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>27.071968852771999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>27.1027489926052</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>27.154789561926901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>27.177148444651898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>27.446529371046601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>27.589881111925202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>27.612320650313801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>27.8468450263608</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>27.968934178856699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>28.031069044240201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>28.129606498279902</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>28.130906443489401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>28.669337373208101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>28.787926309414399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>28.793675664788601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>28.909281764408401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>29.1138235170535</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>29.237445235449599</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>30.592888185481701</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>30.949685487108201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>31.182324111776399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>32.121525567736001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>32.180582085980497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>32.263888261477099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>32.489428520574897</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>32.555396055219902</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>32.567788330423397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>32.676912223003903</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>32.727927136485803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>32.745254434525897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>33.196040944608001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>33.345063327005299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>33.693450056340701</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>34.024073101559999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>34.302511249703599</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>34.659680094183102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>34.759983267109199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>34.920129702196803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>34.957033255240503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>34.999953403024001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>35.276961978128497</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>35.281720645201901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>35.580953899807099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>35.607233591661299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>35.939114858178598</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>36.469999716655899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>36.473522817423898</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>36.501699002460299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>36.524989714113701</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>36.527264464062299</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>36.633797541858399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>37.1176464600657</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>37.126463647960897</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>37.234251841631298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>37.369183353492097</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>37.842938518743701</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>38.014667815907799</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>38.032162820202799</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>38.145041822214502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>38.558248520857802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>38.641137680732399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>38.7289772083979</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>38.837000582914101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>38.9442509387938</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>39.106793384953399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>39.2929989110931</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>39.342026001062798</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>39.987388276086101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>40.367874852326899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>40.463950978329599</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>40.591812048547403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>40.849964399063701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>40.851518465668697</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>40.852194895895302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>40.884506335282502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>41.292587745640702</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>41.305752478142601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>41.3574435881415</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>41.423503406663002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>41.448015085445398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>41.607763200206101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>42.004290241716198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>42.050423431107902</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>42.161990717726098</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>42.734855869150103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>43.0764160826213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>43.517327941753102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>43.639238471552801</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>43.651575323805197</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>43.666227046198401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>44.019170535947403</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>44.621060720375802</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>44.667918877944501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>45.041168354150699</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>46.227996343165003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>46.3722852462733</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>46.727362670748498</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>46.745667323590702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>46.776267501472397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>46.856674864259503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>46.951818444020901</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>47.173178525688499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>47.207320907643002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>47.316426112198201</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>47.320873458103399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>47.363630403691097</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>47.812375217627903</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>47.844355969815901</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>48.119739468886898</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>48.153567612635499</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>48.187961827463297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>48.338819788826001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>48.720907803068897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>49.482470387889798</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>49.519591907489499</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>49.8969347713359</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>49.985413003804197</v>
       </c>
     </row>
   </sheetData>
